--- a/dades/TVU1.xlsx
+++ b/dades/TVU1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mique_000\Desktop\Jocs (Notes)\Nimby Rails\Transports de Catalunya\Calculadores\dades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D87F87-96E4-4DBD-9FCC-D8EC46AEB8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6399518-2572-42C7-97C4-902744AC7932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +769,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="1">
-        <v>0.37557870370370372</v>
+        <v>0.37268518518518517</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>16</v>
@@ -905,7 +905,7 @@
         <v>6</v>
       </c>
       <c r="B30" s="1">
-        <v>0.42089120370370375</v>
+        <v>0.42141203703703706</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>16</v>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" si="0"/>
-        <v>0.70891203703703698</v>
+        <v>0.70601851851851849</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" si="0"/>
-        <v>0.75422453703703707</v>
+        <v>0.75474537037037037</v>
       </c>
       <c r="C50" t="s">
         <v>18</v>
@@ -1639,7 +1639,7 @@
         <v>14</v>
       </c>
       <c r="B72" s="1">
-        <v>0.20891203703703706</v>
+        <v>0.20601851851851852</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>25</v>
@@ -1792,7 +1792,7 @@
         <v>5</v>
       </c>
       <c r="B81" s="1">
-        <v>0.25092592592592594</v>
+        <v>0.25787037037037036</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>25</v>
@@ -1928,7 +1928,7 @@
         <v>12</v>
       </c>
       <c r="B89" s="1">
-        <v>0.45295138888888892</v>
+        <v>0.45341435185185186</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>26</v>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B92" s="1">
         <f>B72+(8/24)</f>
-        <v>0.54224537037037035</v>
+        <v>0.53935185185185186</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="B101" s="1">
         <f t="shared" si="1"/>
-        <v>0.58425925925925926</v>
+        <v>0.59120370370370368</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B109" s="1">
         <f t="shared" si="1"/>
-        <v>0.78628472222222223</v>
+        <v>0.78674768518518512</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -2697,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="B133" s="1">
-        <f t="shared" ref="B133:B172" si="2">B13+(2/24)</f>
+        <f t="shared" ref="B133:B171" si="2">B13+(2/24)</f>
         <v>0.33466435185185184</v>
       </c>
       <c r="C133" t="s">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B142" s="1">
         <f t="shared" si="2"/>
-        <v>0.45891203703703703</v>
+        <v>0.45601851851851849</v>
       </c>
       <c r="C142" t="s">
         <v>32</v>
@@ -3004,7 +3004,7 @@
       </c>
       <c r="B150" s="1">
         <f t="shared" si="2"/>
-        <v>0.50422453703703707</v>
+        <v>0.50474537037037037</v>
       </c>
       <c r="C150" t="s">
         <v>32</v>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="B162" s="1">
         <f t="shared" si="2"/>
-        <v>0.79224537037037035</v>
+        <v>0.78935185185185186</v>
       </c>
       <c r="C162" t="s">
         <v>34</v>
@@ -3364,7 +3364,7 @@
       </c>
       <c r="B170" s="1">
         <f t="shared" si="2"/>
-        <v>0.83755787037037044</v>
+        <v>0.83807870370370374</v>
       </c>
       <c r="C170" t="s">
         <v>34</v>
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B172" s="1">
         <f>B72+(2/24)</f>
-        <v>0.29224537037037041</v>
+        <v>0.28935185185185186</v>
       </c>
       <c r="C172" t="s">
         <v>35</v>
@@ -3562,7 +3562,7 @@
       </c>
       <c r="B181" s="1">
         <f t="shared" si="3"/>
-        <v>0.33425925925925926</v>
+        <v>0.34120370370370368</v>
       </c>
       <c r="C181" t="s">
         <v>35</v>
@@ -3706,7 +3706,7 @@
       </c>
       <c r="B189" s="1">
         <f t="shared" si="3"/>
-        <v>0.53628472222222223</v>
+        <v>0.53674768518518523</v>
       </c>
       <c r="C189" t="s">
         <v>36</v>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B192" s="1">
         <f t="shared" si="3"/>
-        <v>0.62557870370370372</v>
+        <v>0.62268518518518523</v>
       </c>
       <c r="C192" t="s">
         <v>37</v>
@@ -3922,7 +3922,7 @@
       </c>
       <c r="B201" s="1">
         <f t="shared" si="3"/>
-        <v>0.66759259259259263</v>
+        <v>0.67453703703703705</v>
       </c>
       <c r="C201" t="s">
         <v>37</v>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B209" s="1">
         <f t="shared" si="3"/>
-        <v>0.8696180555555556</v>
+        <v>0.87008101851851849</v>
       </c>
       <c r="C209" t="s">
         <v>38</v>
